--- a/TestList/5.0StudyExam.xlsx
+++ b/TestList/5.0StudyExam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>序号
 （id）</t>
@@ -96,7 +96,7 @@
     <t>http://xy.59iedu.com/Study/Learning/MediaLi?sscId=135a5222bc2347ff9f91951f4ebb4031&amp;medId=fzrs201712110001</t>
   </si>
   <si>
-    <t>wait</t>
+    <t>wait1</t>
   </si>
   <si>
     <t>等待</t>
@@ -114,22 +114,31 @@
     <t>/html/body/div[2]/div/div[3]/img</t>
   </si>
   <si>
+    <t>confirmation sure</t>
+  </si>
+  <si>
+    <t>//*[@class="ui_state_highlight"]</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/table/tbody/tr/td/label[2]/input</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>//*[@id="fiexdDiv"]/div[1]/div[1]/a</t>
+  </si>
+  <si>
     <t>confirmation</t>
   </si>
   <si>
     <t>/html/body/div[1]/table/tbody/tr[2]/td[2]/div/table/tbody/tr[3]/td/div/input[1]</t>
   </si>
   <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/table/tbody/tr/td/label[2]/input</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>//*[@id="fiexdDiv"]/div[1]/div[1]/a</t>
+    <t>wait2</t>
   </si>
 </sst>
 </file>
@@ -137,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -181,9 +190,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +244,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -214,7 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,38 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,12 +515,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -536,55 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,16 +592,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,135 +630,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1113,7 +1123,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1122,8 +1132,9 @@
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="77" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
@@ -1182,7 +1193,7 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1202,7 +1213,7 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1226,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1239,7 +1250,7 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1266,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1299,14 +1310,14 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1319,7 +1330,7 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1371,7 +1382,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1380,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1391,7 +1402,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -1426,8 +1437,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://xy.59iedu.com/home/home/login" tooltip="http://xy.59iedu.com/home/home/login"/>
-    <hyperlink ref="E8" r:id="rId2" display="http://xy.59iedu.com/Study/ExamList/Enter?Id=e6af5d2f204942c7aa3e9b214e55e48d" tooltip="http://xy.59iedu.com/Study/ExamList/Enter?Id=e6af5d2f204942c7aa3e9b214e55e48d"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://xy.59iedu.com/Study/Learning/MediaLi?sscId=135a5222bc2347ff9f91951f4ebb4031&amp;medId=fzrs201712110001" tooltip="http://xy.59iedu.com/Study/Learning/MediaLi?sscId=135a5222bc2347ff9f91951f4ebb4031&amp;medId=fzrs201712110001"/>
+    <hyperlink ref="E8" r:id="rId2" display="http://xy.59iedu.com/Study/ExamList/Enter?Id=e6af5d2f204942c7aa3e9b214e55e48d"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
